--- a/results/mp/logistic/corona/confidence/210/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,6 +40,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
@@ -49,9 +52,6 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
@@ -64,30 +64,30 @@
     <t>falling</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>avoid</t>
+    <t>empty</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
@@ -124,49 +124,64 @@
     <t>free</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>safe</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>please</t>
@@ -175,52 +190,34 @@
     <t>relief</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>check</t>
-  </si>
-  <si>
     <t>stay</t>
   </si>
   <si>
     <t>shopping</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>grocery</t>
   </si>
 </sst>
 </file>
@@ -578,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,7 +586,7 @@
         <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -647,13 +644,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.868421052631579</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -665,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>33</v>
@@ -697,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -715,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -739,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -747,13 +744,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8253424657534246</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C5">
-        <v>241</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>241</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -765,19 +762,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -789,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -797,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7647058823529411</v>
+        <v>0.797945205479452</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -815,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -839,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -847,13 +844,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7567567567567568</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -865,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K7">
-        <v>0.8485639686684073</v>
+        <v>0.8375</v>
       </c>
       <c r="L7">
-        <v>325</v>
+        <v>134</v>
       </c>
       <c r="M7">
-        <v>325</v>
+        <v>134</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -889,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -897,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7254901960784313</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C8">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -915,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K8">
-        <v>0.8448275862068966</v>
+        <v>0.8328981723237598</v>
       </c>
       <c r="L8">
-        <v>49</v>
+        <v>319</v>
       </c>
       <c r="M8">
-        <v>49</v>
+        <v>319</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -939,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -971,13 +968,13 @@
         <v>39</v>
       </c>
       <c r="K9">
-        <v>0.8303571428571429</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L9">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="M9">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1021,13 +1018,13 @@
         <v>40</v>
       </c>
       <c r="K10">
-        <v>0.81875</v>
+        <v>0.8203125</v>
       </c>
       <c r="L10">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="M10">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1039,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1047,13 +1044,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6104651162790697</v>
+        <v>0.5767195767195767</v>
       </c>
       <c r="C11">
-        <v>315</v>
+        <v>109</v>
       </c>
       <c r="D11">
-        <v>315</v>
+        <v>109</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1065,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K11">
-        <v>0.8125</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1089,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1097,13 +1094,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5343915343915344</v>
+        <v>0.5736434108527132</v>
       </c>
       <c r="C12">
-        <v>101</v>
+        <v>296</v>
       </c>
       <c r="D12">
-        <v>101</v>
+        <v>296</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1115,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K12">
-        <v>0.8018867924528302</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L12">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="M12">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1139,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1147,13 +1144,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5302013422818792</v>
+        <v>0.5033557046979866</v>
       </c>
       <c r="C13">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D13">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1165,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K13">
-        <v>0.795774647887324</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L13">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1189,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1221,13 +1218,13 @@
         <v>44</v>
       </c>
       <c r="K14">
-        <v>0.7926829268292683</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L14">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1239,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1247,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4666666666666667</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C15">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1265,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K15">
-        <v>0.7872340425531915</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1289,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1297,13 +1294,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4545454545454545</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1315,19 +1312,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K16">
-        <v>0.7575757575757576</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1347,13 +1344,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3875</v>
+        <v>0.4</v>
       </c>
       <c r="C17">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1365,19 +1362,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1389,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1397,13 +1394,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3555555555555556</v>
+        <v>0.35</v>
       </c>
       <c r="C18">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1415,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>48</v>
@@ -1497,13 +1494,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2936507936507937</v>
+        <v>0.3134920634920635</v>
       </c>
       <c r="C20">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D20">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1515,19 +1512,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K20">
-        <v>0.7209302325581395</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1539,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1547,13 +1544,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2117962466487936</v>
+        <v>0.2332439678284182</v>
       </c>
       <c r="C21">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D21">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1565,19 +1562,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K21">
-        <v>0.6652719665271967</v>
+        <v>0.725</v>
       </c>
       <c r="L21">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1589,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>80</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1597,13 +1594,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1433333333333333</v>
+        <v>0.14</v>
       </c>
       <c r="C22">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1615,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K22">
-        <v>0.66</v>
+        <v>0.6882352941176471</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1639,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1647,37 +1644,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.03716508210890233</v>
+        <v>0.03975799481417459</v>
       </c>
       <c r="C23">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D23">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E23">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F23">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K23">
-        <v>0.65</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1689,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1697,13 +1694,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03337653920933247</v>
+        <v>0.03762568926370419</v>
       </c>
       <c r="C24">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D24">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="E24">
         <v>0.17</v>
@@ -1715,19 +1712,19 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>2983</v>
+        <v>2967</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K24">
-        <v>0.6441176470588236</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L24">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c r="M24">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1739,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>121</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1747,25 +1744,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02167766258246937</v>
+        <v>0.02497643732327992</v>
       </c>
       <c r="C25">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D25">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E25">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="F25">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>2076</v>
+        <v>2069</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>55</v>
@@ -1797,49 +1794,49 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.008325328210054436</v>
+        <v>0.01027287319422151</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D26">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="E26">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="F26">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>3097</v>
+        <v>3083</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K26">
-        <v>0.6258503401360545</v>
+        <v>0.6276150627615062</v>
       </c>
       <c r="L26">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="M26">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="N26">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1847,13 +1844,13 @@
         <v>57</v>
       </c>
       <c r="K27">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="L27">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1865,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1873,25 +1870,25 @@
         <v>58</v>
       </c>
       <c r="K28">
-        <v>0.5842696629213483</v>
+        <v>0.6143344709897611</v>
       </c>
       <c r="L28">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="M28">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>37</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1899,13 +1896,13 @@
         <v>59</v>
       </c>
       <c r="K29">
-        <v>0.574468085106383</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L29">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="M29">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1917,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1925,13 +1922,13 @@
         <v>60</v>
       </c>
       <c r="K30">
-        <v>0.5686274509803921</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1943,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1951,13 +1948,13 @@
         <v>61</v>
       </c>
       <c r="K31">
-        <v>0.5555555555555556</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1969,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1977,13 +1974,13 @@
         <v>62</v>
       </c>
       <c r="K32">
-        <v>0.4657534246575342</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L32">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M32">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1995,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -2003,7 +2000,7 @@
         <v>63</v>
       </c>
       <c r="K33">
-        <v>0.3974358974358974</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L33">
         <v>31</v>
@@ -2021,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2029,25 +2026,25 @@
         <v>64</v>
       </c>
       <c r="K34">
-        <v>0.2336448598130841</v>
+        <v>0.390625</v>
       </c>
       <c r="L34">
         <v>25</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N34">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2055,13 +2052,13 @@
         <v>65</v>
       </c>
       <c r="K35">
-        <v>0.09090909090909091</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L35">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2073,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>280</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2081,25 +2078,25 @@
         <v>66</v>
       </c>
       <c r="K36">
-        <v>0.07710843373493977</v>
+        <v>0.1045751633986928</v>
       </c>
       <c r="L36">
         <v>32</v>
       </c>
       <c r="M36">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N36">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O36">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>383</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2107,77 +2104,51 @@
         <v>67</v>
       </c>
       <c r="K37">
-        <v>0.0405616224648986</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="L37">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M37">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N37">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>615</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="K38">
-        <v>0.03</v>
+        <v>0.02713789839065952</v>
       </c>
       <c r="L38">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="M38">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="N38">
-        <v>0.96</v>
+        <v>0.73</v>
       </c>
       <c r="O38">
-        <v>0.04000000000000004</v>
+        <v>0.27</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K39">
-        <v>0.02456692913385827</v>
-      </c>
-      <c r="L39">
-        <v>78</v>
-      </c>
-      <c r="M39">
-        <v>104</v>
-      </c>
-      <c r="N39">
-        <v>0.75</v>
-      </c>
-      <c r="O39">
-        <v>0.25</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>3097</v>
+        <v>3083</v>
       </c>
     </row>
   </sheetData>
